--- a/data/trans_camb/P3A_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R2-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,3</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 4,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 1,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,03; 6,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 3,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 2,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,59; 6,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 3,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 1,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,98; 5,61</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>181,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>222,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>201,26%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,74; 265,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,37; 81,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,57; 409,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,41; 290,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,57; 207,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>88,4; 483,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,98; 200,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,6; 88,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>107,76; 348,9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 2,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,14; 0,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,75; 1,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,08; 4,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 2,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,11; 4,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 2,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 0,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 2,58</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>151,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>214,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,76%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,03; 88,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,4; 5,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,28; 44,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,83; 398,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,22; 226,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,55; 430,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,68; 121,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,56; 29,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 117,91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,37; 0,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,27; 0,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,88; 2,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 2,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,79; 1,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 2,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 0,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 0,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 1,69</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,68%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,7%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,61; 18,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,58; 22,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,25; 87,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,18; 114,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,6; 51,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,92; 93,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,93; 30,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,23; 6,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,07; 56,05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; 0,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,81; -1,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,14; 1,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 3,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 0,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 2,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,97; 1,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,31; -0,58</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 1,49</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,53%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,22%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,04%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,94%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,52%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,6%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,49; 5,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,64; -20,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,64; 23,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,08; 78,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,56; 20,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,03; 67,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,53; 21,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,5; -11,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,96; 32,14</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 0,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; -0,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 1,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 2,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 0,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 3,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 1,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; -0,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 1,98</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,41%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,97%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,51%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,09%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,03%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,94%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,13%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,62; 22,06</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,62; -20,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,25; 33,77</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,0; 85,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,83; 32,47</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,64; 113,75</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 38,92</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,96; -6,87</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,17; 59,87</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P3A_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R2-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 4,04</t>
+          <t>0,3; 4,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,09</t>
+          <t>-1,79; 1,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,14</t>
+          <t>2,27; 6,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 3,95</t>
+          <t>0,12; 4,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 2,74</t>
+          <t>-0,8; 2,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 6,2</t>
+          <t>2,51; 6,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,4</t>
+          <t>0,68; 3,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 1,44</t>
+          <t>-0,88; 1,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,61</t>
+          <t>2,97; 5,49</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 265,67</t>
+          <t>8,06; 276,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-59,37; 81,94</t>
+          <t>-61,32; 84,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>57,57; 409,1</t>
+          <t>66,88; 417,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,41; 290,34</t>
+          <t>0,26; 298,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,57; 207,94</t>
+          <t>-30,07; 207,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,4; 483,15</t>
+          <t>77,6; 488,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,98; 200,9</t>
+          <t>23,54; 213,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,6; 88,63</t>
+          <t>-32,7; 98,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>107,76; 348,9</t>
+          <t>102,6; 341,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 2,36</t>
+          <t>-1,18; 2,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,05</t>
+          <t>-3,17; 0,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 1,3</t>
+          <t>-2,78; 1,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,02</t>
+          <t>0,9; 4,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 2,42</t>
+          <t>-0,49; 2,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,77</t>
+          <t>2,02; 4,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,67</t>
+          <t>0,32; 2,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,63</t>
+          <t>-1,33; 0,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 2,58</t>
+          <t>-0,28; 2,49</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,03; 88,56</t>
+          <t>-29,32; 93,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,4; 5,72</t>
+          <t>-68,71; 2,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,28; 44,07</t>
+          <t>-63,34; 43,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>42,83; 398,22</t>
+          <t>37,26; 398,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 226,97</t>
+          <t>-26,03; 206,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,55; 430,01</t>
+          <t>80,18; 443,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,68; 121,62</t>
+          <t>10,17; 133,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,56; 29,8</t>
+          <t>-41,66; 40,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 117,91</t>
+          <t>-7,8; 114,79</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 0,39</t>
+          <t>-3,57; 0,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 0,5</t>
+          <t>-3,2; 0,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 2,3</t>
+          <t>-1,9; 2,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 2,53</t>
+          <t>-1,83; 2,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 1,1</t>
+          <t>-2,74; 0,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,42</t>
+          <t>-2,31; 2,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 0,89</t>
+          <t>-1,94; 0,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 0,1</t>
+          <t>-2,48; 0,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,69</t>
+          <t>-1,52; 1,7</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-70,61; 18,01</t>
+          <t>-71,81; 18,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-68,58; 22,19</t>
+          <t>-67,55; 22,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-40,25; 87,47</t>
+          <t>-40,72; 82,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,18; 114,94</t>
+          <t>-40,13; 106,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,6; 51,19</t>
+          <t>-62,01; 41,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-45,92; 93,52</t>
+          <t>-48,36; 90,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,93; 30,09</t>
+          <t>-45,92; 32,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-57,23; 6,03</t>
+          <t>-57,41; 13,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-37,07; 56,05</t>
+          <t>-34,14; 57,77</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 0,24</t>
+          <t>-3,75; 0,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,81; -1,1</t>
+          <t>-4,64; -0,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,06</t>
+          <t>-3,15; 1,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,21</t>
+          <t>-1,16; 2,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 0,84</t>
+          <t>-2,92; 0,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,83</t>
+          <t>-0,94; 2,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,03</t>
+          <t>-1,82; 0,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; -0,58</t>
+          <t>-3,28; -0,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,49</t>
+          <t>-1,4; 1,4</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,49; 5,38</t>
+          <t>-51,23; 4,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-67,64; -20,22</t>
+          <t>-65,72; -17,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,64; 23,01</t>
+          <t>-43,86; 21,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 78,8</t>
+          <t>-18,17; 76,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-49,56; 20,11</t>
+          <t>-47,79; 21,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 67,89</t>
+          <t>-15,04; 69,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-30,53; 21,49</t>
+          <t>-28,72; 19,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-52,5; -11,77</t>
+          <t>-51,18; -10,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,96; 32,14</t>
+          <t>-22,35; 29,58</t>
         </is>
       </c>
     </row>
@@ -1549,42 +1549,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,78</t>
+          <t>-1,26; 0,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,43; -0,78</t>
+          <t>-2,46; -0,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,24</t>
+          <t>-0,91; 1,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,34</t>
+          <t>0,48; 2,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 0,85</t>
+          <t>-1,03; 0,73</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,12</t>
+          <t>0,99; 3,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 1,32</t>
+          <t>-0,11; 1,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,42; -0,22</t>
+          <t>-1,46; -0,2</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 22,06</t>
+          <t>-27,67; 20,27</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-53,62; -20,36</t>
+          <t>-54,24; -19,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 33,77</t>
+          <t>-21,01; 39,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>13,0; 85,3</t>
+          <t>13,32; 86,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-25,83; 32,47</t>
+          <t>-29,49; 27,08</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>27,64; 113,75</t>
+          <t>28,33; 115,71</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 38,92</t>
+          <t>-2,91; 41,31</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-36,96; -6,87</t>
+          <t>-37,78; -6,05</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>10,17; 59,87</t>
+          <t>10,23; 60,35</t>
         </is>
       </c>
     </row>
